--- a/src/BachelorThesis.3NF.DB/3NF_popis_vyznam_tabulek.xlsx
+++ b/src/BachelorThesis.3NF.DB/3NF_popis_vyznam_tabulek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\DVGithub\BachelorThesis\src\BachelorThesis.2NF.DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\DVGithub\BachelorThesis\src\BachelorThesis.3NF.DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA8227-8E65-4AD4-8114-D3C466E03A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7C2E35-5E2D-44DE-8894-3F8B58E67E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="152">
   <si>
     <t>Sloupec</t>
   </si>
@@ -33,26 +33,461 @@
     <t>Datový typ</t>
   </si>
   <si>
-    <t>Primární klíč</t>
-  </si>
-  <si>
-    <t>Unikátní záznam</t>
-  </si>
-  <si>
-    <t>Povoluje NULL</t>
-  </si>
-  <si>
     <t>Význam sloupce</t>
   </si>
   <si>
-    <t>Název tabulky</t>
+    <t>Zeme</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Unikátní</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>Identifikátor záznamu</t>
+  </si>
+  <si>
+    <t>Jmeno</t>
+  </si>
+  <si>
+    <t>NVARCHAR(100)</t>
+  </si>
+  <si>
+    <t>Země</t>
+  </si>
+  <si>
+    <t>Celkový počet záznamů</t>
+  </si>
+  <si>
+    <t>Kraj</t>
+  </si>
+  <si>
+    <t>Kraj (Královehradecký)</t>
+  </si>
+  <si>
+    <t>Okres</t>
+  </si>
+  <si>
+    <t>Ulice</t>
+  </si>
+  <si>
+    <t>Mesto</t>
+  </si>
+  <si>
+    <t>PSC</t>
+  </si>
+  <si>
+    <t>NVARCHAR(16)</t>
+  </si>
+  <si>
+    <t>Poštovní směrovací číslo</t>
+  </si>
+  <si>
+    <t>OkresKraj</t>
+  </si>
+  <si>
+    <t>IdOkres</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Okres</t>
+  </si>
+  <si>
+    <t>IdKraj</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Kraj</t>
+  </si>
+  <si>
+    <t>MestoOkres</t>
+  </si>
+  <si>
+    <t>IdMesto</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Mesto</t>
+  </si>
+  <si>
+    <t>Adresa</t>
+  </si>
+  <si>
+    <t>IdUlice</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Ulice</t>
+  </si>
+  <si>
+    <t>CisloPopisne</t>
+  </si>
+  <si>
+    <t>Číslo popisné domu</t>
+  </si>
+  <si>
+    <t>CisloOrientacni</t>
+  </si>
+  <si>
+    <t>Číslo orientační domu</t>
+  </si>
+  <si>
+    <t>IdZeme</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Zeme</t>
+  </si>
+  <si>
+    <t>Osoba</t>
+  </si>
+  <si>
+    <t>NVARCAHR(100)</t>
+  </si>
+  <si>
+    <t>Křestní jméno uživatele</t>
+  </si>
+  <si>
+    <t>Prijmeni</t>
+  </si>
+  <si>
+    <t>Příjmení uživatele</t>
+  </si>
+  <si>
+    <t>KontaktTelefon</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>NVARCHAR(20)</t>
+  </si>
+  <si>
+    <t>KontaktEmail</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Uzivatel</t>
+  </si>
+  <si>
+    <t>IdAdresa</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Adresa</t>
+  </si>
+  <si>
+    <t>IdOsoba</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Osob</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>NVARCHAR(50)</t>
+  </si>
+  <si>
+    <t>Přihlašovací jméno do systému</t>
+  </si>
+  <si>
+    <t>Heslo</t>
+  </si>
+  <si>
+    <t>NVARCHAR(MAX)</t>
+  </si>
+  <si>
+    <t>Heslo uživatele</t>
+  </si>
+  <si>
+    <t>UzivatelTelefon</t>
+  </si>
+  <si>
+    <t>IdUzivatel</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Uzivatel</t>
+  </si>
+  <si>
+    <t>IdKontaktTelefon</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky KontaktTelefon</t>
+  </si>
+  <si>
+    <t>UzivatelEmail</t>
+  </si>
+  <si>
+    <t>IdKontaktEmail</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky KontaktEmail</t>
+  </si>
+  <si>
+    <t>Vlastník</t>
+  </si>
+  <si>
+    <t>VlastnikTelefon</t>
+  </si>
+  <si>
+    <t>IdVlastnik</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Vlastnik</t>
+  </si>
+  <si>
+    <t>VlastnikEmail</t>
+  </si>
+  <si>
+    <t>PravniForma</t>
+  </si>
+  <si>
+    <t>Nazev</t>
+  </si>
+  <si>
+    <t>Určuje, zda prodejce je osoba, či společnost (sro, as…)</t>
+  </si>
+  <si>
+    <t>Společnost</t>
+  </si>
+  <si>
+    <t>IdPravniForma</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky PravniForma</t>
+  </si>
+  <si>
+    <t>ObchodniJmeno</t>
+  </si>
+  <si>
+    <t>NVARCHAR(255)</t>
+  </si>
+  <si>
+    <t>Jméno společnosti, pokud to není osoba</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>Identifikační číslo obchodníka</t>
+  </si>
+  <si>
+    <t>Prodejce</t>
+  </si>
+  <si>
+    <t>IdSpolecnost</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Společnost</t>
+  </si>
+  <si>
+    <t>ProdejceTelefon</t>
+  </si>
+  <si>
+    <t>IdProdejce</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Prodejce</t>
+  </si>
+  <si>
+    <t>ProdejceEmail</t>
+  </si>
+  <si>
+    <t>TypNemovitosti</t>
+  </si>
+  <si>
+    <t>TypObjektu</t>
+  </si>
+  <si>
+    <t>Informace o tom, zda se jedná o byt, dům, pozemek…</t>
+  </si>
+  <si>
+    <t>TypTypuObjektu</t>
+  </si>
+  <si>
+    <t>Informace o tom, že je jsou 3 pokoje, pokud jde o dům, 2+1 pokud jde o byt, či typ pozemku (louka, les, pole…)</t>
+  </si>
+  <si>
+    <t>StavNemovitosti</t>
+  </si>
+  <si>
+    <t>Stav</t>
+  </si>
+  <si>
+    <t>Stav objektu (dobrý, po rekonstrukci…)</t>
+  </si>
+  <si>
+    <t>Nemovitost</t>
+  </si>
+  <si>
+    <t>IdTypNemovitosti</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky TypNemovitosti</t>
+  </si>
+  <si>
+    <t>IdStavNemovitosti</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky StavNemovitosti</t>
+  </si>
+  <si>
+    <t>Parkovani</t>
+  </si>
+  <si>
+    <t>Příznak, zda je u nemovitosti možné parkování</t>
+  </si>
+  <si>
+    <t>EnergetickaNarocnost</t>
+  </si>
+  <si>
+    <t>NCHAR(1)</t>
+  </si>
+  <si>
+    <t>Energetická třída objektu (pokud není pozemek)</t>
+  </si>
+  <si>
+    <t>Aukce</t>
+  </si>
+  <si>
+    <t>IdNemovitost</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Nemovitost</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Prodejce, aktuální prodejce nemovitosti</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Vlastnik, aktuální vlastník nemovitosti</t>
+  </si>
+  <si>
+    <t>Název aukce</t>
+  </si>
+  <si>
+    <t>MinimalniPrihoz</t>
+  </si>
+  <si>
+    <t>DECIMAL(18,2)</t>
+  </si>
+  <si>
+    <t>Minimální částka, která může být přihozena</t>
+  </si>
+  <si>
+    <t>PocatecniCena</t>
+  </si>
+  <si>
+    <t>Počáteční cena aukce nemovitosti</t>
+  </si>
+  <si>
+    <t>DatumZacatek</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Datum začátku aukce</t>
+  </si>
+  <si>
+    <t>CasZacatek</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Čas začátku aukce</t>
+  </si>
+  <si>
+    <t>DatumKonec</t>
+  </si>
+  <si>
+    <t>Datum konce aukce</t>
+  </si>
+  <si>
+    <t>CasKonec</t>
+  </si>
+  <si>
+    <t>Čas konce aukce</t>
+  </si>
+  <si>
+    <t>Prihoz</t>
+  </si>
+  <si>
+    <t>IdAukce</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Aukce</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Uživatel</t>
+  </si>
+  <si>
+    <t>DatumPrihozu</t>
+  </si>
+  <si>
+    <t>Datum příhozu do aukce</t>
+  </si>
+  <si>
+    <t>CasPrihozu</t>
+  </si>
+  <si>
+    <t>Čas příhozu do aukce</t>
+  </si>
+  <si>
+    <t>CastkaPrihozu</t>
+  </si>
+  <si>
+    <t>Kolik daný uživatel přihodil</t>
+  </si>
+  <si>
+    <t>AukceTerminy</t>
+  </si>
+  <si>
+    <t>AukceNemovitost</t>
+  </si>
+  <si>
+    <t>ProdejceOsoba</t>
+  </si>
+  <si>
+    <t>ProdejceSpolecnost</t>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TypProdejce</t>
+  </si>
+  <si>
+    <t>Příznak (O, S), který určuje, zda je prodejcem společnost, nebo osoba</t>
+  </si>
+  <si>
+    <t>UzivatelOsoba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,12 +497,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="238"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +527,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -101,20 +550,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -397,55 +950,3168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.41015625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.76171875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.87890625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.52734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.17578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.234375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A27" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A31" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A32" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A45" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A46" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A51" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A52" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A56" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A57" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A60" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A61" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A62" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A66" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A67" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A68" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A70" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A71" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A72" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A73" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A74" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A76" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A77" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A78" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A79" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A81" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A82" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A83" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A84" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A85" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A87" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A88" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A89" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A90" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A91" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A92" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A93" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A94" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A95" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A96" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A97" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A98" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A99" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A100" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A101" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30.7" x14ac:dyDescent="0.5">
+      <c r="A103" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A104" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A105" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A106" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A107" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A108" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A109" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A110" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A111" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A112" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+    </row>
+    <row r="113" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A113" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A114" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A115" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30.7" x14ac:dyDescent="0.5">
+      <c r="A116" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A117" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A118" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A119" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A120" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A121" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="8"/>
+    </row>
+    <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A122" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+    </row>
+    <row r="123" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A123" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A124" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A125" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A126" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+    </row>
+    <row r="127" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A127" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A128" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A129" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A130" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A131" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+    </row>
+    <row r="132" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A132" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A133" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A134" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A135" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="11"/>
+    </row>
+    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A136" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+    </row>
+    <row r="137" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A137" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A138" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="30.7" x14ac:dyDescent="0.5">
+      <c r="A139" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="46" x14ac:dyDescent="0.5">
+      <c r="A140" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A142" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="16"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="8"/>
+    </row>
+    <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A143" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+    </row>
+    <row r="144" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A144" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A145" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A146" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A147" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="5"/>
+    </row>
+    <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A148" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B148" s="13"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+    </row>
+    <row r="149" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A149" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A150" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A151" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A152" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A153" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A154" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A155" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A156" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="16"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A157" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B157" s="13"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+    </row>
+    <row r="158" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A158" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A159" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A160" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A161" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A162" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A163" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="5"/>
+    </row>
+    <row r="164" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A164" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+    </row>
+    <row r="165" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A165" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A166" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A167" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A168" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A169" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A170" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A171" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="14"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="5"/>
+    </row>
+    <row r="172" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A172" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B172" s="13"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+    </row>
+    <row r="173" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A173" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A174" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A175" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="30.7" x14ac:dyDescent="0.5">
+      <c r="A176" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="30.7" x14ac:dyDescent="0.5">
+      <c r="A177" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A178" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A179" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B179" s="13"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A180" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A181" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A182" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A183" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A184" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A185" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A186" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A187" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="64">
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A73:E73"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A157:F157"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="A187:E187"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A164:F164"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A178:E178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/BachelorThesis.3NF.DB/3NF_popis_vyznam_tabulek.xlsx
+++ b/src/BachelorThesis.3NF.DB/3NF_popis_vyznam_tabulek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\DVGithub\BachelorThesis\src\BachelorThesis.3NF.DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7C2E35-5E2D-44DE-8894-3F8B58E67E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F360F493-C556-41B2-B3C5-DE0C5E5FADDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="156">
   <si>
     <t>Sloupec</t>
   </si>
@@ -315,15 +315,9 @@
     <t>TypObjektu</t>
   </si>
   <si>
-    <t>Informace o tom, zda se jedná o byt, dům, pozemek…</t>
-  </si>
-  <si>
     <t>TypTypuObjektu</t>
   </si>
   <si>
-    <t>Informace o tom, že je jsou 3 pokoje, pokud jde o dům, 2+1 pokud jde o byt, či typ pozemku (louka, les, pole…)</t>
-  </si>
-  <si>
     <t>StavNemovitosti</t>
   </si>
   <si>
@@ -481,6 +475,24 @@
   </si>
   <si>
     <t>UzivatelOsoba</t>
+  </si>
+  <si>
+    <t>Jméno typu objektu (Dům, Byt, Pozemek)</t>
+  </si>
+  <si>
+    <t>Jméno typu tspu objektu (Les, 1+kk, vila)</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky TypObjektu</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky TypTypuObjektu</t>
+  </si>
+  <si>
+    <t>IdTypObjektu</t>
+  </si>
+  <si>
+    <t>IdTypTypuObjektu</t>
   </si>
 </sst>
 </file>
@@ -609,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -669,6 +681,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:F140"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2068,7 +2083,7 @@
     </row>
     <row r="68" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A68" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -2858,22 +2873,22 @@
     </row>
     <row r="116" spans="1:6" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A116" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D116" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
@@ -2888,7 +2903,7 @@
     </row>
     <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.5">
       <c r="A118" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -2948,7 +2963,7 @@
     </row>
     <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.5">
       <c r="A122" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -3168,7 +3183,7 @@
     </row>
     <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.5">
       <c r="A136" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -3216,284 +3231,284 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="30.7" x14ac:dyDescent="0.5">
-      <c r="A139" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B139" s="7" t="s">
+    <row r="139" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C139" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="8" t="s">
+      <c r="C139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A140" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="8"/>
+    </row>
+    <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A141" s="13" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="46" x14ac:dyDescent="0.5">
-      <c r="A140" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B140" s="7" t="s">
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+    </row>
+    <row r="142" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A142" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A143" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C140" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A142" s="15" t="s">
+      <c r="C144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A145" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B142" s="16"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="8"/>
-    </row>
-    <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.5">
-      <c r="A143" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B143" s="13"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-    </row>
-    <row r="144" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A144" s="9" t="s">
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="8"/>
+    </row>
+    <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A146" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+    </row>
+    <row r="147" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A147" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B147" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F144" s="10" t="s">
+      <c r="F147" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A145" s="7" t="s">
+    <row r="148" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A148" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B145" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" s="8" t="s">
+      <c r="B148" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A146" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A147" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" s="16"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="5"/>
-    </row>
-    <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.5">
-      <c r="A148" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B148" s="13"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-    </row>
     <row r="149" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A149" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F149" s="10" t="s">
-        <v>2</v>
+      <c r="A149" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A150" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A151" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="8"/>
+    </row>
+    <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A152" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+    </row>
+    <row r="153" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A153" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A154" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" s="8" t="s">
+      <c r="B154" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="8" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A151" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A152" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A153" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A154" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A155" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
@@ -3508,7 +3523,7 @@
     </row>
     <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.5">
       <c r="A157" s="13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -3557,11 +3572,11 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A160" s="4" t="s">
-        <v>77</v>
+      <c r="A160" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>10</v>
@@ -3572,156 +3587,156 @@
       <c r="E160" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F160" s="5" t="s">
-        <v>117</v>
+      <c r="F160" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A161" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A162" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E162" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A164" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A165" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B163" s="14"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="5"/>
-    </row>
-    <row r="164" spans="1:6" ht="15" x14ac:dyDescent="0.5">
-      <c r="A164" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B164" s="13"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-    </row>
-    <row r="165" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A165" s="9" t="s">
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="5"/>
+    </row>
+    <row r="166" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A166" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B166" s="13"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+    </row>
+    <row r="167" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A167" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B167" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E167" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F165" s="10" t="s">
+      <c r="F167" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A166" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A167" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E167" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="168" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A168" s="4" t="s">
-        <v>126</v>
+      <c r="A168" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>128</v>
+        <v>9</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A169" s="4" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>10</v>
@@ -3733,238 +3748,238 @@
         <v>10</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A170" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B170" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A171" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A172" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="14"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="5"/>
+    </row>
+    <row r="173" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A173" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B173" s="13"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+    </row>
+    <row r="174" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A174" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A175" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A176" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A177" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A178" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C170" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A171" s="14" t="s">
+      <c r="B178" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A179" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A180" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="5"/>
-    </row>
-    <row r="172" spans="1:6" ht="15" x14ac:dyDescent="0.5">
-      <c r="A172" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B172" s="13"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13"/>
-    </row>
-    <row r="173" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A173" s="9" t="s">
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="5"/>
+    </row>
+    <row r="181" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A181" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B181" s="13"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+    </row>
+    <row r="182" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A182" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B182" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D182" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E182" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F173" s="10" t="s">
+      <c r="F182" s="10" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A174" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A175" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="30.7" x14ac:dyDescent="0.5">
-      <c r="A176" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="30.7" x14ac:dyDescent="0.5">
-      <c r="A177" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E177" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F177" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A178" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B178" s="14"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="5"/>
-    </row>
-    <row r="179" spans="1:6" ht="15" x14ac:dyDescent="0.5">
-      <c r="A179" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B179" s="13"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
-    </row>
-    <row r="180" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A180" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F180" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A181" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A182" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A183" s="4" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>10</v>
@@ -3973,15 +3988,15 @@
         <v>10</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A184" s="4" t="s">
-        <v>137</v>
+      <c r="A184" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>10</v>
@@ -3993,15 +4008,15 @@
         <v>10</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A185" s="4" t="s">
-        <v>139</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="30.7" x14ac:dyDescent="0.5">
+      <c r="A185" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>10</v>
@@ -4012,16 +4027,16 @@
       <c r="E185" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F185" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A186" s="4" t="s">
-        <v>141</v>
+      <c r="F185" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="30.7" x14ac:dyDescent="0.5">
+      <c r="A186" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>10</v>
@@ -4032,11 +4047,11 @@
       <c r="E186" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F186" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="F186" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A187" s="14" t="s">
         <v>15</v>
       </c>
@@ -4044,10 +4059,175 @@
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
       <c r="E187" s="14"/>
-      <c r="F187" s="12"/>
+      <c r="F187" s="5"/>
+    </row>
+    <row r="188" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A188" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B188" s="13"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
+    </row>
+    <row r="189" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A189" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F189" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A190" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A191" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A192" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A193" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A194" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A195" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="A196" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" s="14"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="68">
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A141:F141"/>
     <mergeCell ref="A118:F118"/>
     <mergeCell ref="A121:E121"/>
     <mergeCell ref="A122:F122"/>
@@ -4098,20 +4278,19 @@
     <mergeCell ref="A130:E130"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="A166:F166"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A156:E156"/>
     <mergeCell ref="A157:F157"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A173:F173"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="A181:F181"/>
     <mergeCell ref="A187:E187"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A164:F164"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A178:E178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
